--- a/จัดทำโครงการ/เสนอโครงการ_v1.xlsx
+++ b/จัดทำโครงการ/เสนอโครงการ_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="0" windowWidth="25320" windowHeight="17360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>ระบบสารสนเทศ เพื่อการติดตามการจัดการคุณภาพน้ำ สำหรับฟื้นฟูแม่น้ำคูคลอง พื้นที่ชุ่มน้ำ แหล่งน้ำธรรมชาติ ยกระดับคุณภาพชีวิตและการท่องเทียว</t>
   </si>
   <si>
-    <t xml:space="preserve">การจัดทำระบบสารสนเทศเพื่อการติดตามแผนแม่บท </t>
-  </si>
-  <si>
     <t>ยุทธศาสตร์ชาติ / แผนย่อย</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>การบริหารจัดการข้อมูลทรัพยากรน้ำ และระบบรักษาความปลอดภัย</t>
+  </si>
+  <si>
+    <t>การจัดทำระบบสารสนเทศเพื่อการติดตามการขับเคลื่อนแผนยุทธศาสตร์</t>
   </si>
 </sst>
 </file>
@@ -336,8 +336,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -408,7 +426,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -425,6 +443,15 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -441,6 +468,15 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -772,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -982,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1017,7 +1053,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="C4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>36</v>
@@ -1294,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1532,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1548,11 +1584,11 @@
   <sheetData>
     <row r="1" spans="3:9">
       <c r="D1" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="14"/>
     </row>
@@ -1581,7 +1617,7 @@
     </row>
     <row r="3" spans="3:9">
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -1604,7 +1640,7 @@
     </row>
     <row r="4" spans="3:9" ht="38">
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
@@ -1621,7 +1657,7 @@
     </row>
     <row r="5" spans="3:9" ht="38">
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1634,7 +1670,7 @@
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
